--- a/Data/EC/NIT-9014669819.xlsx
+++ b/Data/EC/NIT-9014669819.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1605248-07AC-4E4E-83CC-1FD3493A2E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6443B12C-9065-4463-B486-6F607DBD0DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{72BB3612-FBBB-40DE-9A4C-5BE6083E229F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{462969AD-B4A6-40F7-8F2B-041DC202F92A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,43 +65,43 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1044923835</t>
+  </si>
+  <si>
+    <t>HENRY JOSE MORELO PINTO</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
     <t>1143327560</t>
   </si>
   <si>
     <t>LUIS RAFAEL GUTIERREZ JULIO</t>
   </si>
   <si>
-    <t>2404</t>
-  </si>
-  <si>
     <t>1143358068</t>
   </si>
   <si>
     <t>JOSE ANDRES SAENZ RUIZ</t>
-  </si>
-  <si>
-    <t>1044923835</t>
-  </si>
-  <si>
-    <t>HENRY JOSE MORELO PINTO</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E93372-BEBC-3840-435D-1ACA49507D79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4E46DB-F86E-904C-371C-B586E12F83EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6899E676-2B69-4C2E-8DDA-972748D9E55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0AA92C-B6C4-4265-8AF6-EEE539157461}">
   <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1058,13 +1058,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1081,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1110,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1127,13 +1127,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1150,10 +1150,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1196,16 +1196,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G23" s="18">
         <v>1300000</v>
@@ -1219,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1242,13 +1242,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1265,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1288,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1311,13 +1311,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1334,13 +1334,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1357,16 +1357,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G30" s="18">
         <v>1300000</v>
@@ -1380,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1403,13 +1403,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1426,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1449,16 +1449,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
         <v>1300000</v>
@@ -1472,16 +1472,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
         <v>1300000</v>
@@ -1495,16 +1495,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F36" s="24">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G36" s="24">
         <v>1300000</v>

--- a/Data/EC/NIT-9014669819.xlsx
+++ b/Data/EC/NIT-9014669819.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6443B12C-9065-4463-B486-6F607DBD0DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82B15F2C-BD25-4817-BFCB-FA4C41F26197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{462969AD-B4A6-40F7-8F2B-041DC202F92A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD12DB83-10F2-4DE3-8E14-FDD8DB3E8321}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,37 +71,37 @@
     <t>HENRY JOSE MORELO PINTO</t>
   </si>
   <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>1143327560</t>
+  </si>
+  <si>
+    <t>LUIS RAFAEL GUTIERREZ JULIO</t>
+  </si>
+  <si>
+    <t>1143358068</t>
+  </si>
+  <si>
+    <t>JOSE ANDRES SAENZ RUIZ</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
     <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>1143327560</t>
-  </si>
-  <si>
-    <t>LUIS RAFAEL GUTIERREZ JULIO</t>
-  </si>
-  <si>
-    <t>1143358068</t>
-  </si>
-  <si>
-    <t>JOSE ANDRES SAENZ RUIZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -200,7 +200,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -213,9 +215,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -415,23 +415,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,10 +459,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4E46DB-F86E-904C-371C-B586E12F83EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC04AA5-7D17-C5A7-4F0F-9932F614D93F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0AA92C-B6C4-4265-8AF6-EEE539157461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987CBF4A-1EF6-43E0-AF89-33ABEB8357E3}">
   <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1058,13 +1058,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1081,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1110,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1127,13 +1127,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1150,10 +1150,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1196,16 +1196,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
         <v>1300000</v>
@@ -1219,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1242,13 +1242,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1265,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1288,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1311,13 +1311,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1334,13 +1334,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1357,16 +1357,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
         <v>1300000</v>
@@ -1380,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1403,13 +1403,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1426,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1449,16 +1449,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G34" s="18">
         <v>1300000</v>
@@ -1472,16 +1472,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G35" s="18">
         <v>1300000</v>
@@ -1495,16 +1495,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F36" s="24">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G36" s="24">
         <v>1300000</v>
